--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -71,12 +71,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1可见 0不可见</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +125,14 @@
   </si>
   <si>
     <t>剑圣风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌斩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -476,7 +510,7 @@
     <col min="4" max="4" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,8 +523,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -499,6 +536,20 @@
       </c>
       <c r="C2" t="s">
         <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -97,12 +97,116 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+头顶特效</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+血条上的buff图标</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//0:没 1:白色 2:绿色 3:愤怒红</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//模型之外的效果 不以模型为父节点</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +237,82 @@
   </si>
   <si>
     <t>无敌斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeadEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克大招的线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line/pake_skill4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空技能锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/xukong_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TopBarEffect</t>
+  </si>
+  <si>
+    <t>ui://fekv2twrs1b2x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍拍熊伤害叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://fekv2twrs1b2w</t>
+  </si>
+  <si>
+    <t>蓝猫大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenderColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍拍熊大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutEffect</t>
+  </si>
+  <si>
+    <t>帕克相位转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/pake_skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫拉的线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line/lanmao_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NativeTopBarEffect</t>
+  </si>
+  <si>
+    <t>Buff/zhuaheng</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -508,9 +688,12 @@
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="54.625" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,8 +709,23 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -540,8 +738,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>9</v>
       </c>
@@ -549,6 +750,142 @@
         <v>7</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
     </row>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -201,12 +201,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+手上特效</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+手上特效</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +365,37 @@
   </si>
   <si>
     <t>Buff/zhuaheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandsEffect</t>
+  </si>
+  <si>
+    <t>血魔的血怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/xuemo_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FootsEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫超负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/lanmao_skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行捆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line/fengxing_skill1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,23 +760,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="54.625" customWidth="1"/>
-    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -724,8 +807,14 @@
       <c r="J1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -742,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>9</v>
       </c>
@@ -756,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>11</v>
       </c>
@@ -776,7 +865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>51</v>
       </c>
@@ -793,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>14</v>
       </c>
@@ -810,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>25</v>
       </c>
@@ -827,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>87</v>
       </c>
@@ -841,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>26</v>
       </c>
@@ -855,7 +944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>48</v>
       </c>
@@ -872,7 +961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>84</v>
       </c>
@@ -886,6 +975,57 @@
         <v>1</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
     </row>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -201,6 +201,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+unity特效 血条上面</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -250,6 +276,32 @@
           </rPr>
           <t xml:space="preserve">
 手上特效</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+材质特效</t>
         </r>
       </text>
     </comment>
@@ -258,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,90 +364,196 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TopBarEffect</t>
+  </si>
+  <si>
+    <t>ui://fekv2twrs1b2x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍拍熊伤害叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://fekv2twrs1b2w</t>
+  </si>
+  <si>
+    <t>蓝猫大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenderColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍拍熊大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutEffect</t>
+  </si>
+  <si>
+    <t>帕克相位转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/pake_skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫拉的线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line/lanmao_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NativeTopBarEffect</t>
+  </si>
+  <si>
+    <t>HandsEffect</t>
+  </si>
+  <si>
+    <t>血魔的血怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/xuemo_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FootsEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫超负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/lanmao_skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行捆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line/fengxing_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Buff/xukong_skill2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TopBarEffect</t>
-  </si>
-  <si>
-    <t>ui://fekv2twrs1b2x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍拍熊伤害叠加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://fekv2twrs1b2w</t>
-  </si>
-  <si>
-    <t>蓝猫大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RenderColor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍拍熊大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutEffect</t>
-  </si>
-  <si>
-    <t>帕克相位转移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff/pake_skill3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫拉的线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Line/lanmao_skill2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NativeTopBarEffect</t>
-  </si>
-  <si>
-    <t>Buff/zhuaheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HandsEffect</t>
-  </si>
-  <si>
-    <t>血魔的血怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff/xuemo_skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FootsEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫超负荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff/lanmao_skill3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行捆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Line/fengxing_skill1</t>
+    <t>Buff/dulong_skill4_topbuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/xuemo_skill4_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行疾风步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/fengxing_skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/paipaixiong_skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍拍熊攻速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/najia_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/xuanyun</t>
+  </si>
+  <si>
+    <t>虚空眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王点灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/fuwang_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娜迦之歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/najia_skill4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/xiaoxiao_skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小拔树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialEffect</t>
+  </si>
+  <si>
+    <t>斧王吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specialeffects/fuwang_skill1_red</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -776,7 +934,7 @@
     <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -796,25 +954,28 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
       <c r="L1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -831,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>9</v>
       </c>
@@ -845,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>11</v>
       </c>
@@ -856,16 +1017,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>51</v>
       </c>
@@ -882,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>14</v>
       </c>
@@ -890,7 +1048,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -899,29 +1057,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -930,12 +1088,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -944,33 +1102,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>48</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>84</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
@@ -978,12 +1136,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -992,15 +1150,15 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1009,24 +1167,330 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>35</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -554,6 +554,10 @@
   </si>
   <si>
     <t>Specialeffects/fuwang_skill1_red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽魂权杖技能buf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1493,6 +1497,20 @@
         <v>62</v>
       </c>
     </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,6 +558,10 @@
   </si>
   <si>
     <t>幽魂权杖技能buf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小晕锤眩晕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1511,6 +1515,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>170</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -82,7 +82,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t>作者:
+所有的东西包括血条和其他buf效果</t>
         </r>
         <r>
           <rPr>
@@ -302,6 +303,33 @@
           </rPr>
           <t xml:space="preserve">
 材质特效</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//模型的隐藏和显示
+1表示显示 0表示隐藏</t>
         </r>
       </text>
     </comment>
@@ -310,7 +338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -562,6 +590,112 @@
   </si>
   <si>
     <t>小晕锤眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/xiangweixie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位鞋(近战)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位鞋(远程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冥盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/xuanmingduanpai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/tiaozhan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/tiaozhan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specialeffects/fenzhengmiansha_purple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/chuifeng</t>
+  </si>
+  <si>
+    <t>阿托斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModeEnable</t>
+  </si>
+  <si>
+    <t>羊刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Toon Chick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚灵刀技能buf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大晕锤眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰眼(近战)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specialeffects/bingyan_white</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰眼(远程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/najia_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/renjia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刃甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bkb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/bkb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -926,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -942,7 +1076,7 @@
     <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -982,8 +1116,11 @@
       <c r="M1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -999,8 +1136,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>9</v>
       </c>
@@ -1013,8 +1153,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>11</v>
       </c>
@@ -1030,8 +1173,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>51</v>
       </c>
@@ -1047,8 +1193,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>14</v>
       </c>
@@ -1064,8 +1213,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>25</v>
       </c>
@@ -1081,8 +1233,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>87</v>
       </c>
@@ -1095,8 +1250,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>26</v>
       </c>
@@ -1109,8 +1267,11 @@
       <c r="H9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>48</v>
       </c>
@@ -1126,8 +1287,11 @@
       <c r="I10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>84</v>
       </c>
@@ -1143,8 +1307,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>27</v>
       </c>
@@ -1160,8 +1327,11 @@
       <c r="K12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>85</v>
       </c>
@@ -1177,8 +1347,11 @@
       <c r="K13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43</v>
       </c>
@@ -1194,8 +1367,11 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>78</v>
       </c>
@@ -1211,8 +1387,11 @@
       <c r="J15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>31</v>
       </c>
@@ -1228,8 +1407,11 @@
       <c r="J16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>44</v>
       </c>
@@ -1245,8 +1427,11 @@
       <c r="L17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>24</v>
       </c>
@@ -1262,8 +1447,11 @@
       <c r="K18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>35</v>
       </c>
@@ -1279,8 +1467,11 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1296,8 +1487,11 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1313,8 +1507,11 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>38</v>
       </c>
@@ -1330,8 +1527,11 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43</v>
       </c>
@@ -1347,8 +1547,11 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>49</v>
       </c>
@@ -1364,8 +1567,11 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>50</v>
       </c>
@@ -1381,8 +1587,11 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>66</v>
       </c>
@@ -1398,8 +1607,11 @@
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>72</v>
       </c>
@@ -1415,8 +1627,11 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>92</v>
       </c>
@@ -1432,8 +1647,11 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>69</v>
       </c>
@@ -1449,8 +1667,11 @@
       <c r="J29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>37</v>
       </c>
@@ -1466,8 +1687,11 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>41</v>
       </c>
@@ -1483,8 +1707,11 @@
       <c r="K31" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>67</v>
       </c>
@@ -1500,8 +1727,11 @@
       <c r="M32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>123</v>
       </c>
@@ -1514,8 +1744,11 @@
       <c r="H33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>170</v>
       </c>
@@ -1530,6 +1763,326 @@
       </c>
       <c r="H34">
         <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>129</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>65</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>130</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>65</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>138</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>152</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>185</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>155</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>158</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>161</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>164</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>167</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>174</v>
+      </c>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>183</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>220</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>85</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>221</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>85</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>187</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>191</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -333,12 +333,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+图标路径</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="148">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -697,6 +723,226 @@
   <si>
     <t>Buff/bkb</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/jiaoxie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小勋章减甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/xiaoxunzhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconPath</t>
+  </si>
+  <si>
+    <t>ui://GameUI/黑皇杖</t>
+  </si>
+  <si>
+    <t>ui://GameUI/刃甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小小拔树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/剑圣风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/剑圣无敌斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑冰箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/熊战士的怒意狂击</t>
+  </si>
+  <si>
+    <t>ui://GameUI/血魔血怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/血魔割裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/风行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/韧鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/蓝猫超负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗棒的治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/剑圣治疗棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑光环攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小黑光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/熊战士的攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/熊战士激怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦激流降甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小娜迦的激流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔3压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/影魔影牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼之刃减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幽鬼之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王大招加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/斧王淘汰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幽魂权杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/虚灵之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/相位鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭品(近战)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭品(远程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/弗拉迪米尔的祭品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/弗拉迪米尔的祭品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛子(光环buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纷争面纱(技能buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/洞察烟斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/纷争面纱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓦(光环buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/西瓦的守护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强袭(我方光环buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/强袭胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂面具(狂热)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/疯狂面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净魂之刃减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/净魂之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗灭减护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/黯灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒旦技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/撒旦之邪力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconTimeEnable</t>
   </si>
 </sst>
 </file>
@@ -1060,23 +1306,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="5.125" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="8.375" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="7.75" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="6.875" customWidth="1"/>
+    <col min="14" max="14" width="14.875" customWidth="1"/>
+    <col min="15" max="15" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,8 +1374,14 @@
       <c r="N1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1139,8 +1400,14 @@
       <c r="N2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>9</v>
       </c>
@@ -1156,8 +1423,14 @@
       <c r="N3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>11</v>
       </c>
@@ -1176,8 +1449,11 @@
       <c r="N4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>51</v>
       </c>
@@ -1196,8 +1472,11 @@
       <c r="N5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>14</v>
       </c>
@@ -1216,8 +1495,11 @@
       <c r="N6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>25</v>
       </c>
@@ -1236,8 +1518,14 @@
       <c r="N7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>87</v>
       </c>
@@ -1253,8 +1541,14 @@
       <c r="N8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>26</v>
       </c>
@@ -1270,8 +1564,11 @@
       <c r="N9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>48</v>
       </c>
@@ -1290,8 +1587,11 @@
       <c r="N10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>84</v>
       </c>
@@ -1310,8 +1610,11 @@
       <c r="N11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>27</v>
       </c>
@@ -1330,8 +1633,14 @@
       <c r="N12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O12" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>85</v>
       </c>
@@ -1350,8 +1659,14 @@
       <c r="N13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O13" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43</v>
       </c>
@@ -1370,8 +1685,11 @@
       <c r="N14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>78</v>
       </c>
@@ -1390,8 +1708,11 @@
       <c r="N15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>31</v>
       </c>
@@ -1410,8 +1731,14 @@
       <c r="N16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O16" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>44</v>
       </c>
@@ -1430,8 +1757,14 @@
       <c r="N17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O17" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>24</v>
       </c>
@@ -1450,8 +1783,14 @@
       <c r="N18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>35</v>
       </c>
@@ -1470,8 +1809,11 @@
       <c r="N19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1490,8 +1832,11 @@
       <c r="N20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1510,8 +1855,11 @@
       <c r="N21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>38</v>
       </c>
@@ -1530,8 +1878,11 @@
       <c r="N22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43</v>
       </c>
@@ -1550,8 +1901,11 @@
       <c r="N23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>49</v>
       </c>
@@ -1570,8 +1924,11 @@
       <c r="N24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>50</v>
       </c>
@@ -1590,8 +1947,11 @@
       <c r="N25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>66</v>
       </c>
@@ -1610,8 +1970,11 @@
       <c r="N26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>72</v>
       </c>
@@ -1630,8 +1993,11 @@
       <c r="N27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>92</v>
       </c>
@@ -1650,8 +2016,11 @@
       <c r="N28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>69</v>
       </c>
@@ -1670,8 +2039,11 @@
       <c r="N29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>37</v>
       </c>
@@ -1690,8 +2062,11 @@
       <c r="N30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>41</v>
       </c>
@@ -1710,8 +2085,14 @@
       <c r="N31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O31" t="s">
+        <v>99</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>67</v>
       </c>
@@ -1730,8 +2111,11 @@
       <c r="N32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>123</v>
       </c>
@@ -1747,8 +2131,14 @@
       <c r="N33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O33" t="s">
+        <v>124</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>170</v>
       </c>
@@ -1767,8 +2157,11 @@
       <c r="N34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>129</v>
       </c>
@@ -1787,8 +2180,14 @@
       <c r="N35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O35" t="s">
+        <v>126</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>130</v>
       </c>
@@ -1807,8 +2206,14 @@
       <c r="N36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O36" t="s">
+        <v>126</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>138</v>
       </c>
@@ -1827,8 +2232,11 @@
       <c r="N37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>152</v>
       </c>
@@ -1847,8 +2255,11 @@
       <c r="N38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>185</v>
       </c>
@@ -1867,8 +2278,11 @@
       <c r="N39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>155</v>
       </c>
@@ -1887,8 +2301,11 @@
       <c r="N40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>158</v>
       </c>
@@ -1907,8 +2324,11 @@
       <c r="N41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>161</v>
       </c>
@@ -1927,8 +2347,11 @@
       <c r="N42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>164</v>
       </c>
@@ -1947,8 +2370,11 @@
       <c r="N43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>167</v>
       </c>
@@ -1967,8 +2393,11 @@
       <c r="N44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>174</v>
       </c>
@@ -1984,8 +2413,14 @@
       <c r="N45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O45" t="s">
+        <v>125</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>183</v>
       </c>
@@ -2004,8 +2439,11 @@
       <c r="N46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>220</v>
       </c>
@@ -2024,8 +2462,11 @@
       <c r="N47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>221</v>
       </c>
@@ -2044,8 +2485,11 @@
       <c r="N48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>187</v>
       </c>
@@ -2064,8 +2508,14 @@
       <c r="N49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O49" t="s">
+        <v>98</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>191</v>
       </c>
@@ -2082,6 +2532,495 @@
         <v>0</v>
       </c>
       <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50" t="s">
+        <v>97</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>216</v>
+      </c>
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>93</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>217</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>93</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>141</v>
+      </c>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>95</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>85</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>145</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>108</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>111</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>113</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>117</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>119</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>121</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>123</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>146</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
+        <v>129</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>147</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>130</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>151</v>
+      </c>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>133</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>155</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>134</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>193</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" t="s">
+        <v>136</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>202</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
+        <v>138</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>207</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>140</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>212</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>142</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>214</v>
+      </c>
+      <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>144</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>223</v>
+      </c>
+      <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>146</v>
+      </c>
+      <c r="P71">
         <v>1</v>
       </c>
     </row>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="149">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -943,6 +943,10 @@
   </si>
   <si>
     <t>IconTimeEnable</t>
+  </si>
+  <si>
+    <t>帕克沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1306,11 +1310,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P74" sqref="P74"/>
+      <selection pane="topRight" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1679,6 +1683,9 @@
       <c r="E14">
         <v>1</v>
       </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
       <c r="H14">
         <v>0</v>
       </c>
@@ -1884,7 +1891,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>43</v>
+        <v>1000000</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
@@ -3021,6 +3028,29 @@
         <v>146</v>
       </c>
       <c r="P71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>47</v>
+      </c>
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="P72">
         <v>1</v>
       </c>
     </row>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -421,10 +421,6 @@
     <t>TopBarEffect</t>
   </si>
   <si>
-    <t>ui://fekv2twrs1b2x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拍拍熊伤害叠加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -946,6 +942,10 @@
   </si>
   <si>
     <t>帕克沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/zhuaheng</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1314,7 +1314,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F75" sqref="F75"/>
+      <selection pane="topRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1324,7 +1324,7 @@
     <col min="4" max="4" width="8.875" customWidth="1"/>
     <col min="5" max="5" width="7.75" customWidth="1"/>
     <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
     <col min="10" max="10" width="8.625" customWidth="1"/>
@@ -1358,31 +1358,31 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1445,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1508,22 +1508,22 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
+      <c r="J7" t="s">
+        <v>148</v>
+      </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -1534,7 +1534,7 @@
         <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1577,16 +1577,16 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>21</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1600,10 +1600,10 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1623,22 +1623,22 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>27</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>28</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -1649,22 +1649,22 @@
         <v>85</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
         <v>30</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>31</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -1675,16 +1675,16 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1724,22 +1724,22 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
         <v>37</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>38</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1750,22 +1750,22 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
         <v>39</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>40</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -1776,7 +1776,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -1802,10 +1802,10 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1825,13 +1825,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>45</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>46</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1848,13 +1848,13 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1871,13 +1871,13 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>1000000</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1917,13 +1917,13 @@
         <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1940,13 +1940,13 @@
         <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1963,13 +1963,13 @@
         <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1986,13 +1986,13 @@
         <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2009,13 +2009,13 @@
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2032,16 +2032,16 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
         <v>54</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>55</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2055,13 +2055,13 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
         <v>56</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>57</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2087,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N31">
         <v>1</v>
       </c>
       <c r="O31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -2104,16 +2104,16 @@
         <v>67</v>
       </c>
       <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
         <v>61</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
-        <v>62</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2127,7 +2127,7 @@
         <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2139,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -2150,13 +2150,13 @@
         <v>170</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>129</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2182,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -2199,7 +2199,7 @@
         <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N36">
         <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -2225,10 +2225,10 @@
         <v>138</v>
       </c>
       <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
         <v>68</v>
-      </c>
-      <c r="C37" t="s">
-        <v>69</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2248,10 +2248,10 @@
         <v>152</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2271,10 +2271,10 @@
         <v>185</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2294,7 +2294,7 @@
         <v>155</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2317,16 +2317,16 @@
         <v>158</v>
       </c>
       <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
         <v>75</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>76</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2340,10 +2340,10 @@
         <v>161</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2363,13 +2363,13 @@
         <v>164</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>167</v>
       </c>
       <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
         <v>80</v>
-      </c>
-      <c r="C44" t="s">
-        <v>81</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2409,7 +2409,7 @@
         <v>174</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -2432,13 +2432,13 @@
         <v>183</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2455,16 +2455,16 @@
         <v>220</v>
       </c>
       <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
         <v>84</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="M47" t="s">
-        <v>85</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2478,7 +2478,7 @@
         <v>221</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2501,10 +2501,10 @@
         <v>187</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -2527,11 +2527,11 @@
         <v>191</v>
       </c>
       <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" t="s">
         <v>90</v>
       </c>
-      <c r="C50" t="s">
-        <v>91</v>
-      </c>
       <c r="E50">
         <v>1</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="O50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P50">
         <v>1</v>
@@ -2553,16 +2553,16 @@
         <v>216</v>
       </c>
       <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
         <v>92</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>93</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2576,16 +2576,16 @@
         <v>217</v>
       </c>
       <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
         <v>92</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="J52" t="s">
-        <v>93</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2599,16 +2599,16 @@
         <v>141</v>
       </c>
       <c r="B53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
         <v>94</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="J53" t="s">
-        <v>95</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2622,7 +2622,7 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2645,19 +2645,19 @@
         <v>145</v>
       </c>
       <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
         <v>107</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55" t="s">
-        <v>108</v>
       </c>
       <c r="P55">
         <v>1</v>
@@ -2668,19 +2668,19 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
         <v>110</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56" t="s">
-        <v>111</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -2691,19 +2691,19 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
         <v>112</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57" t="s">
-        <v>113</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -2714,19 +2714,19 @@
         <v>36</v>
       </c>
       <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
         <v>116</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58" t="s">
-        <v>117</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -2737,19 +2737,19 @@
         <v>52</v>
       </c>
       <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
         <v>118</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59" t="s">
-        <v>119</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -2760,19 +2760,19 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
         <v>120</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60" t="s">
-        <v>121</v>
       </c>
       <c r="P60">
         <v>1</v>
@@ -2783,19 +2783,19 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
         <v>122</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61" t="s">
-        <v>123</v>
       </c>
       <c r="P61">
         <v>1</v>
@@ -2806,7 +2806,7 @@
         <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2818,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="O62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2841,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>151</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2864,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>155</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="O65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -2898,19 +2898,19 @@
         <v>193</v>
       </c>
       <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" t="s">
         <v>135</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66" t="s">
-        <v>136</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>202</v>
       </c>
       <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
         <v>137</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67" t="s">
-        <v>138</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         <v>207</v>
       </c>
       <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
         <v>139</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68" t="s">
-        <v>140</v>
       </c>
       <c r="P68">
         <v>1</v>
@@ -2967,19 +2967,19 @@
         <v>212</v>
       </c>
       <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
         <v>141</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69" t="s">
-        <v>142</v>
       </c>
       <c r="P69">
         <v>1</v>
@@ -2990,19 +2990,19 @@
         <v>214</v>
       </c>
       <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
         <v>143</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70" t="s">
-        <v>144</v>
       </c>
       <c r="P70">
         <v>1</v>
@@ -3013,19 +3013,19 @@
         <v>223</v>
       </c>
       <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
         <v>145</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71" t="s">
-        <v>146</v>
       </c>
       <c r="P71">
         <v>1</v>
@@ -3036,13 +3036,13 @@
         <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H72">
         <v>0</v>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="150">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -947,6 +947,9 @@
   <si>
     <t>Buff/zhuaheng</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsShowControl</t>
   </si>
 </sst>
 </file>
@@ -1310,11 +1313,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H10" sqref="H10"/>
+      <selection pane="topRight" activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1330,12 +1333,12 @@
     <col min="10" max="10" width="8.625" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="7.625" customWidth="1"/>
-    <col min="13" max="13" width="6.875" customWidth="1"/>
-    <col min="14" max="14" width="14.875" customWidth="1"/>
-    <col min="15" max="15" width="31.375" customWidth="1"/>
+    <col min="13" max="13" width="9.25" customWidth="1"/>
+    <col min="14" max="14" width="5.875" customWidth="1"/>
+    <col min="15" max="15" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1384,8 +1387,11 @@
       <c r="P1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1410,8 +1416,11 @@
       <c r="P2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>9</v>
       </c>
@@ -1433,8 +1442,11 @@
       <c r="P3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>11</v>
       </c>
@@ -1456,8 +1468,11 @@
       <c r="P4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>51</v>
       </c>
@@ -1479,8 +1494,11 @@
       <c r="P5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>14</v>
       </c>
@@ -1502,8 +1520,11 @@
       <c r="P6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>25</v>
       </c>
@@ -1528,8 +1549,11 @@
       <c r="P7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>87</v>
       </c>
@@ -1551,8 +1575,11 @@
       <c r="P8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>26</v>
       </c>
@@ -1571,8 +1598,11 @@
       <c r="P9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>48</v>
       </c>
@@ -1594,8 +1624,11 @@
       <c r="P10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>84</v>
       </c>
@@ -1617,8 +1650,11 @@
       <c r="P11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>27</v>
       </c>
@@ -1643,8 +1679,11 @@
       <c r="P12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>85</v>
       </c>
@@ -1669,8 +1708,11 @@
       <c r="P13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43</v>
       </c>
@@ -1695,8 +1737,11 @@
       <c r="P14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>78</v>
       </c>
@@ -1718,8 +1763,11 @@
       <c r="P15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>31</v>
       </c>
@@ -1744,8 +1792,11 @@
       <c r="P16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>44</v>
       </c>
@@ -1770,8 +1821,11 @@
       <c r="P17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>24</v>
       </c>
@@ -1796,8 +1850,11 @@
       <c r="P18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>35</v>
       </c>
@@ -1819,8 +1876,11 @@
       <c r="P19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1842,8 +1902,11 @@
       <c r="P20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1865,8 +1928,11 @@
       <c r="P21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>38</v>
       </c>
@@ -1888,8 +1954,11 @@
       <c r="P22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1000000</v>
       </c>
@@ -1911,8 +1980,11 @@
       <c r="P23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>49</v>
       </c>
@@ -1934,8 +2006,11 @@
       <c r="P24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>50</v>
       </c>
@@ -1957,8 +2032,11 @@
       <c r="P25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>66</v>
       </c>
@@ -1980,8 +2058,11 @@
       <c r="P26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>72</v>
       </c>
@@ -2003,8 +2084,11 @@
       <c r="P27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>92</v>
       </c>
@@ -2026,8 +2110,11 @@
       <c r="P28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>69</v>
       </c>
@@ -2049,8 +2136,11 @@
       <c r="P29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>37</v>
       </c>
@@ -2072,8 +2162,11 @@
       <c r="P30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>41</v>
       </c>
@@ -2098,8 +2191,11 @@
       <c r="P31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>67</v>
       </c>
@@ -2121,8 +2217,11 @@
       <c r="P32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>123</v>
       </c>
@@ -2144,8 +2243,11 @@
       <c r="P33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>170</v>
       </c>
@@ -2167,8 +2269,11 @@
       <c r="P34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>129</v>
       </c>
@@ -2193,8 +2298,11 @@
       <c r="P35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>130</v>
       </c>
@@ -2219,8 +2327,11 @@
       <c r="P36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>138</v>
       </c>
@@ -2242,8 +2353,11 @@
       <c r="P37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>152</v>
       </c>
@@ -2265,8 +2379,11 @@
       <c r="P38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>185</v>
       </c>
@@ -2288,13 +2405,16 @@
       <c r="P39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2302,8 +2422,8 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="M40" t="s">
-        <v>73</v>
+      <c r="I40" t="s">
+        <v>75</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2311,13 +2431,19 @@
       <c r="P40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2325,29 +2451,29 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" t="s">
-        <v>75</v>
-      </c>
       <c r="N41">
         <v>1</v>
       </c>
       <c r="P41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
       <c r="H42">
         <v>0</v>
       </c>
@@ -2357,105 +2483,120 @@
       <c r="P42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>124</v>
       </c>
       <c r="P44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
+      <c r="F45" t="s">
+        <v>45</v>
+      </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>1</v>
       </c>
-      <c r="O45" t="s">
-        <v>124</v>
-      </c>
       <c r="P45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" t="s">
-        <v>45</v>
-      </c>
       <c r="H46">
         <v>0</v>
       </c>
+      <c r="M46" t="s">
+        <v>84</v>
+      </c>
       <c r="N46">
         <v>1</v>
       </c>
       <c r="P46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2472,13 +2613,19 @@
       <c r="P47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2486,25 +2633,28 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="M48" t="s">
-        <v>84</v>
-      </c>
       <c r="N48">
         <v>1</v>
       </c>
+      <c r="O48" t="s">
+        <v>97</v>
+      </c>
       <c r="P48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2516,21 +2666,21 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2538,19 +2688,22 @@
       <c r="H50">
         <v>0</v>
       </c>
+      <c r="J50" t="s">
+        <v>92</v>
+      </c>
       <c r="N50">
         <v>1</v>
       </c>
-      <c r="O50" t="s">
-        <v>96</v>
-      </c>
       <c r="P50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B51" t="s">
         <v>91</v>
@@ -2570,13 +2723,16 @@
       <c r="P51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2585,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2593,464 +2749,504 @@
       <c r="P52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>84</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>145</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>107</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>110</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>112</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>116</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>118</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>120</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>122</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>146</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>128</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>147</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
+        <v>129</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>151</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>132</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>155</v>
+      </c>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>73</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>133</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>193</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>135</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>202</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" t="s">
+        <v>137</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>207</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
+        <v>139</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>212</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
         <v>141</v>
       </c>
-      <c r="B53" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="J53" t="s">
-        <v>94</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="P53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>10</v>
-      </c>
-      <c r="B54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="M54" t="s">
-        <v>84</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="P54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A55">
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>214</v>
+      </c>
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>143</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>223</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
         <v>145</v>
       </c>
-      <c r="B55" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55" t="s">
-        <v>107</v>
-      </c>
-      <c r="P55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>7</v>
-      </c>
-      <c r="B56" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56" t="s">
-        <v>110</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>12</v>
-      </c>
-      <c r="B57" t="s">
-        <v>111</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57" t="s">
-        <v>112</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>36</v>
-      </c>
-      <c r="B58" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58" t="s">
-        <v>116</v>
-      </c>
-      <c r="P58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>52</v>
-      </c>
-      <c r="B59" t="s">
-        <v>117</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59" t="s">
-        <v>118</v>
-      </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>57</v>
-      </c>
-      <c r="B60" t="s">
-        <v>119</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60" t="s">
-        <v>120</v>
-      </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>71</v>
-      </c>
-      <c r="B61" t="s">
-        <v>121</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61" t="s">
-        <v>122</v>
-      </c>
-      <c r="P61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>146</v>
-      </c>
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62" t="s">
-        <v>128</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A63">
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>47</v>
+      </c>
+      <c r="B71" t="s">
         <v>147</v>
       </c>
-      <c r="B63" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63" t="s">
-        <v>129</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>151</v>
-      </c>
-      <c r="B64" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64" t="s">
-        <v>132</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <v>155</v>
-      </c>
-      <c r="B65" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65" t="s">
-        <v>133</v>
-      </c>
-      <c r="P65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>193</v>
-      </c>
-      <c r="B66" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66" t="s">
-        <v>135</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>202</v>
-      </c>
-      <c r="B67" t="s">
-        <v>136</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67" t="s">
-        <v>137</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>207</v>
-      </c>
-      <c r="B68" t="s">
-        <v>138</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68" t="s">
-        <v>139</v>
-      </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>212</v>
-      </c>
-      <c r="B69" t="s">
-        <v>140</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69" t="s">
-        <v>141</v>
-      </c>
-      <c r="P69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>214</v>
-      </c>
-      <c r="B70" t="s">
-        <v>142</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70" t="s">
-        <v>143</v>
-      </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <v>223</v>
-      </c>
-      <c r="B71" t="s">
-        <v>144</v>
-      </c>
       <c r="E71">
         <v>1</v>
       </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="N71">
         <v>1</v>
       </c>
-      <c r="O71" t="s">
-        <v>145</v>
-      </c>
       <c r="P71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A72">
-        <v>47</v>
-      </c>
-      <c r="B72" t="s">
-        <v>147</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="P72">
+      <c r="Q71">
         <v>1</v>
       </c>
     </row>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="152">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -950,6 +950,14 @@
   </si>
   <si>
     <t>IsShowControl</t>
+  </si>
+  <si>
+    <t>回城特效buf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/回城卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1313,11 +1321,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T29" sqref="T29"/>
+      <selection pane="topRight" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1333,9 +1341,10 @@
     <col min="10" max="10" width="8.625" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="7.625" customWidth="1"/>
-    <col min="13" max="13" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="32.375" customWidth="1"/>
     <col min="14" max="14" width="5.875" customWidth="1"/>
-    <col min="15" max="15" width="7.375" customWidth="1"/>
+    <col min="15" max="15" width="30.25" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
@@ -3248,6 +3257,32 @@
       </c>
       <c r="Q71">
         <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>237</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>151</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="153">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -957,6 +957,10 @@
   </si>
   <si>
     <t>ui://GameUI/回城卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/xuanfengzhan_boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1321,17 +1325,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J76" sqref="J76"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O76" sqref="O76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
     <col min="4" max="4" width="8.875" customWidth="1"/>
     <col min="5" max="5" width="7.75" customWidth="1"/>
     <col min="6" max="6" width="9.25" customWidth="1"/>
@@ -3285,6 +3289,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>238</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -677,10 +677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hero/Toon Chick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>虚灵刀技能buf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -961,6 +957,10 @@
   </si>
   <si>
     <t>Buff/xuanfengzhan_boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Monster_Bat_Prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1327,9 +1327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O76" sqref="O76"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1395,13 +1395,13 @@
         <v>78</v>
       </c>
       <c r="O1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1551,13 +1551,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -1687,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1829,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="O31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -2456,7 +2456,7 @@
         <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2508,7 +2508,7 @@
         <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2531,7 +2531,7 @@
         <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="O44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -2557,7 +2557,7 @@
         <v>183</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2583,16 +2583,16 @@
         <v>220</v>
       </c>
       <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
         <v>83</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="M46" t="s">
-        <v>84</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2609,7 +2609,7 @@
         <v>221</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2635,10 +2635,10 @@
         <v>187</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -2664,11 +2664,11 @@
         <v>191</v>
       </c>
       <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
         <v>89</v>
       </c>
-      <c r="C49" t="s">
-        <v>90</v>
-      </c>
       <c r="E49">
         <v>1</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -2693,16 +2693,16 @@
         <v>216</v>
       </c>
       <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
         <v>91</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>92</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2719,16 +2719,16 @@
         <v>217</v>
       </c>
       <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
         <v>91</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>92</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2745,16 +2745,16 @@
         <v>141</v>
       </c>
       <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
         <v>93</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="J52" t="s">
-        <v>94</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2771,7 +2771,7 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2797,19 +2797,19 @@
         <v>145</v>
       </c>
       <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
         <v>106</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54" t="s">
-        <v>107</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -2823,19 +2823,19 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
         <v>109</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55" t="s">
-        <v>110</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -2849,19 +2849,19 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
         <v>111</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56" t="s">
-        <v>112</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -2875,19 +2875,19 @@
         <v>36</v>
       </c>
       <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
         <v>115</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57" t="s">
-        <v>116</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -2901,19 +2901,19 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
         <v>117</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58" t="s">
-        <v>118</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -2927,19 +2927,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
         <v>119</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59" t="s">
-        <v>120</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -2953,19 +2953,19 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
         <v>121</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60" t="s">
-        <v>122</v>
       </c>
       <c r="P60">
         <v>1</v>
@@ -2979,7 +2979,7 @@
         <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2991,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="O61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>147</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="O62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>151</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>155</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P64">
         <v>1</v>
@@ -3086,19 +3086,19 @@
         <v>193</v>
       </c>
       <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
         <v>134</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65" t="s">
-        <v>135</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         <v>202</v>
       </c>
       <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" t="s">
         <v>136</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66" t="s">
-        <v>137</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -3138,19 +3138,19 @@
         <v>207</v>
       </c>
       <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
         <v>138</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67" t="s">
-        <v>139</v>
       </c>
       <c r="P67">
         <v>1</v>
@@ -3164,19 +3164,19 @@
         <v>212</v>
       </c>
       <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
         <v>140</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68" t="s">
-        <v>141</v>
       </c>
       <c r="P68">
         <v>1</v>
@@ -3190,19 +3190,19 @@
         <v>214</v>
       </c>
       <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
         <v>142</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69" t="s">
-        <v>143</v>
       </c>
       <c r="P69">
         <v>1</v>
@@ -3216,19 +3216,19 @@
         <v>223</v>
       </c>
       <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
         <v>144</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70" t="s">
-        <v>145</v>
       </c>
       <c r="P70">
         <v>1</v>
@@ -3242,7 +3242,7 @@
         <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3268,19 +3268,19 @@
         <v>237</v>
       </c>
       <c r="B72" t="s">
+        <v>149</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
         <v>150</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72" t="s">
-        <v>151</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -3297,7 +3297,7 @@
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E73">
         <v>1</v>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -806,161 +806,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小娜迦激流降甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小娜迦的激流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔3压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/影魔影牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼之刃减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幽鬼之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王大招加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/斧王淘汰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幽魂权杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/虚灵之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/相位鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭品(近战)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭品(远程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/弗拉迪米尔的祭品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/弗拉迪米尔的祭品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛子(光环buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纷争面纱(技能buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/洞察烟斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/纷争面纱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓦(光环buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/西瓦的守护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强袭(我方光环buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/强袭胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂面具(狂热)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/疯狂面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净魂之刃减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/净魂之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗灭减护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/黯灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒旦技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/撒旦之邪力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconTimeEnable</t>
+  </si>
+  <si>
+    <t>帕克沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/zhuaheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsShowControl</t>
+  </si>
+  <si>
+    <t>回城特效buf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/回城卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/xuanfengzhan_boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Monster_Bat_Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ui://GameUI/熊战士激怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦激流降甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/小娜迦的激流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔3压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/影魔影牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼之刃减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/幽鬼之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王大招加速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/斧王淘汰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/幽魂权杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/虚灵之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/相位鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祭品(近战)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祭品(远程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/弗拉迪米尔的祭品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/弗拉迪米尔的祭品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笛子(光环buf)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纷争面纱(技能buf)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/洞察烟斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/纷争面纱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西瓦(光环buf)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/西瓦的守护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强袭(我方光环buf)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/强袭胸甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂面具(狂热)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/疯狂面具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净魂之刃减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/净魂之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗灭减护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/黯灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒旦技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/撒旦之邪力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconTimeEnable</t>
-  </si>
-  <si>
-    <t>帕克沉默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff/zhuaheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsShowControl</t>
-  </si>
-  <si>
-    <t>回城特效buf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/回城卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff/xuanfengzhan_boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Monster_Bat_Prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1327,9 +1327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C45" sqref="C45"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1398,10 +1398,10 @@
         <v>94</v>
       </c>
       <c r="P1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1582,9 +1582,6 @@
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8" t="s">
-        <v>113</v>
-      </c>
       <c r="P8">
         <v>1</v>
       </c>
@@ -1608,6 +1605,9 @@
       <c r="N9">
         <v>1</v>
       </c>
+      <c r="O9" t="s">
+        <v>152</v>
+      </c>
       <c r="P9">
         <v>1</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -2508,7 +2508,7 @@
         <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="O44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -2875,19 +2875,19 @@
         <v>36</v>
       </c>
       <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
         <v>114</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57" t="s">
-        <v>115</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -2901,19 +2901,19 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
         <v>116</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58" t="s">
-        <v>117</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -2927,19 +2927,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
         <v>118</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59" t="s">
-        <v>119</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -2953,19 +2953,19 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
         <v>120</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60" t="s">
-        <v>121</v>
       </c>
       <c r="P60">
         <v>1</v>
@@ -2979,7 +2979,7 @@
         <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2991,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="O61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>147</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="O62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>151</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>155</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P64">
         <v>1</v>
@@ -3086,19 +3086,19 @@
         <v>193</v>
       </c>
       <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
         <v>133</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65" t="s">
-        <v>134</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         <v>202</v>
       </c>
       <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" t="s">
         <v>135</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66" t="s">
-        <v>136</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -3138,19 +3138,19 @@
         <v>207</v>
       </c>
       <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
         <v>137</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67" t="s">
-        <v>138</v>
       </c>
       <c r="P67">
         <v>1</v>
@@ -3164,19 +3164,19 @@
         <v>212</v>
       </c>
       <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
         <v>139</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68" t="s">
-        <v>140</v>
       </c>
       <c r="P68">
         <v>1</v>
@@ -3190,19 +3190,19 @@
         <v>214</v>
       </c>
       <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
         <v>141</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69" t="s">
-        <v>142</v>
       </c>
       <c r="P69">
         <v>1</v>
@@ -3216,19 +3216,19 @@
         <v>223</v>
       </c>
       <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
         <v>143</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70" t="s">
-        <v>144</v>
       </c>
       <c r="P70">
         <v>1</v>
@@ -3242,7 +3242,7 @@
         <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3268,19 +3268,19 @@
         <v>237</v>
       </c>
       <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
         <v>149</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72" t="s">
-        <v>150</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -3297,7 +3297,7 @@
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E73">
         <v>1</v>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="155">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -627,340 +627,348 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Buff/xuanmingduanpai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/tiaozhan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/tiaozhan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specialeffects/fenzhengmiansha_purple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/chuifeng</t>
+  </si>
+  <si>
+    <t>阿托斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModeEnable</t>
+  </si>
+  <si>
+    <t>羊刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚灵刀技能buf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大晕锤眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰眼(近战)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specialeffects/bingyan_white</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰眼(远程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/najia_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/renjia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刃甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bkb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/bkb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/jiaoxie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小勋章减甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/xiaoxunzhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconPath</t>
+  </si>
+  <si>
+    <t>ui://GameUI/黑皇杖</t>
+  </si>
+  <si>
+    <t>ui://GameUI/刃甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小小拔树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/剑圣风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/剑圣无敌斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑冰箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/熊战士的怒意狂击</t>
+  </si>
+  <si>
+    <t>ui://GameUI/血魔血怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/血魔割裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/风行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/韧鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/蓝猫超负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗棒的治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/剑圣治疗棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑光环攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小黑光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/熊战士的攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦激流降甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/小娜迦的激流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔3压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/影魔影牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼之刃减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幽鬼之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王大招加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/斧王淘汰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/幽魂权杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/虚灵之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/相位鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭品(近战)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭品(远程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/弗拉迪米尔的祭品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/弗拉迪米尔的祭品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛子(光环buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纷争面纱(技能buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/洞察烟斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/纷争面纱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓦(光环buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/西瓦的守护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强袭(我方光环buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/强袭胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂面具(狂热)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/疯狂面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净魂之刃减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/净魂之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗灭减护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/黯灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒旦技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/撒旦之邪力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconTimeEnable</t>
+  </si>
+  <si>
+    <t>帕克沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/zhuaheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsShowControl</t>
+  </si>
+  <si>
+    <t>回城特效buf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/回城卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/xuanfengzhan_boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/Monster_Bat_Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/熊战士激怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强袭装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>玄冥盾牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Buff/xuanmingduanpai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笛子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff/tiaozhan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff/tiaozhan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Specialeffects/fenzhengmiansha_purple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff/chuifeng</t>
-  </si>
-  <si>
-    <t>阿托斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源沉默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ModeEnable</t>
-  </si>
-  <si>
-    <t>羊刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚灵刀技能buf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大晕锤眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰眼(近战)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Specialeffects/bingyan_white</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰眼(远程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff/najia_skill2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff/renjia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刃甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bkb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff/bkb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缴械</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff/jiaoxie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小勋章减甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff/xiaoxunzhang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconPath</t>
-  </si>
-  <si>
-    <t>ui://GameUI/黑皇杖</t>
-  </si>
-  <si>
-    <t>ui://GameUI/刃甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/小小拔树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/剑圣风暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/剑圣无敌斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑冰箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/熊战士的怒意狂击</t>
-  </si>
-  <si>
-    <t>ui://GameUI/血魔血怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/血魔割裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/风行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战鼓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/韧鼓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/蓝猫超负荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗棒的治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/剑圣治疗棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑光环攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/小黑光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/熊战士的攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦激流降甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/小娜迦的激流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔3压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/影魔影牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼之刃减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/幽鬼之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王大招加速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/斧王淘汰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/幽魂权杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/虚灵之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/相位鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祭品(近战)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祭品(远程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/弗拉迪米尔的祭品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/弗拉迪米尔的祭品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笛子(光环buf)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纷争面纱(技能buf)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/洞察烟斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/纷争面纱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西瓦(光环buf)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/西瓦的守护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强袭(我方光环buf)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/强袭胸甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂面具(狂热)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/疯狂面具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净魂之刃减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/净魂之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗灭减护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/黯灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒旦技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/撒旦之邪力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconTimeEnable</t>
-  </si>
-  <si>
-    <t>帕克沉默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff/zhuaheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsShowControl</t>
-  </si>
-  <si>
-    <t>回城特效buf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/回城卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff/xuanfengzhan_boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero/Monster_Bat_Prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://GameUI/熊战士激怒</t>
+    <t>ui://GameUI/玄冥盾牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1325,11 +1333,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8:O8"/>
+      <selection pane="topRight" activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1392,16 +1400,16 @@
         <v>59</v>
       </c>
       <c r="N1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -1424,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1450,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1551,13 +1559,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -1606,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -1687,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -1716,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -1800,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1829,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -1858,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -2199,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="O31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -2251,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -2306,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -2335,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -2349,10 +2357,7 @@
         <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2362,6 +2367,9 @@
       </c>
       <c r="N37">
         <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>154</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -2375,10 +2383,10 @@
         <v>152</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2401,10 +2409,10 @@
         <v>185</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2427,16 +2435,16 @@
         <v>158</v>
       </c>
       <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
         <v>74</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>75</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2453,10 +2461,10 @@
         <v>161</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2479,7 +2487,7 @@
         <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2505,10 +2513,10 @@
         <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2531,7 +2539,7 @@
         <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2543,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="O44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -2557,7 +2565,7 @@
         <v>183</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2583,16 +2591,16 @@
         <v>220</v>
       </c>
       <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
         <v>82</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="M46" t="s">
-        <v>83</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2609,7 +2617,7 @@
         <v>221</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2618,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2635,10 +2643,10 @@
         <v>187</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2650,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -2664,11 +2672,11 @@
         <v>191</v>
       </c>
       <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" t="s">
         <v>88</v>
       </c>
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
       <c r="E49">
         <v>1</v>
       </c>
@@ -2679,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -2693,16 +2701,16 @@
         <v>216</v>
       </c>
       <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
         <v>90</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>91</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2719,16 +2727,16 @@
         <v>217</v>
       </c>
       <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
         <v>90</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>91</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2745,16 +2753,16 @@
         <v>141</v>
       </c>
       <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
         <v>92</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="J52" t="s">
-        <v>93</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2771,7 +2779,7 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2780,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2797,19 +2805,19 @@
         <v>145</v>
       </c>
       <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
         <v>105</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54" t="s">
-        <v>106</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -2823,19 +2831,19 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
         <v>108</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55" t="s">
-        <v>109</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -2849,19 +2857,19 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
         <v>110</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56" t="s">
-        <v>111</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -2875,19 +2883,19 @@
         <v>36</v>
       </c>
       <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
         <v>113</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57" t="s">
-        <v>114</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -2901,19 +2909,19 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
         <v>115</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58" t="s">
-        <v>116</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -2927,19 +2935,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
         <v>117</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59" t="s">
-        <v>118</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -2953,19 +2961,19 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
         <v>119</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60" t="s">
-        <v>120</v>
       </c>
       <c r="P60">
         <v>1</v>
@@ -2979,7 +2987,7 @@
         <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2991,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="O61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3005,7 +3013,7 @@
         <v>147</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3017,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="O62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3031,7 +3039,7 @@
         <v>151</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3043,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="O63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -3057,7 +3065,7 @@
         <v>155</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3066,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="M64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N64">
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P64">
         <v>1</v>
@@ -3086,19 +3094,19 @@
         <v>193</v>
       </c>
       <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
         <v>132</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65" t="s">
-        <v>133</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -3112,19 +3120,19 @@
         <v>202</v>
       </c>
       <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" t="s">
         <v>134</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66" t="s">
-        <v>135</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -3138,19 +3146,19 @@
         <v>207</v>
       </c>
       <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
         <v>136</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67" t="s">
-        <v>137</v>
       </c>
       <c r="P67">
         <v>1</v>
@@ -3164,19 +3172,19 @@
         <v>212</v>
       </c>
       <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
         <v>138</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68" t="s">
-        <v>139</v>
       </c>
       <c r="P68">
         <v>1</v>
@@ -3190,19 +3198,19 @@
         <v>214</v>
       </c>
       <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
         <v>140</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69" t="s">
-        <v>141</v>
       </c>
       <c r="P69">
         <v>1</v>
@@ -3216,19 +3224,19 @@
         <v>223</v>
       </c>
       <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
         <v>142</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70" t="s">
-        <v>143</v>
       </c>
       <c r="P70">
         <v>1</v>
@@ -3242,7 +3250,7 @@
         <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3268,19 +3276,19 @@
         <v>237</v>
       </c>
       <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
         <v>148</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72" t="s">
-        <v>149</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -3297,7 +3305,7 @@
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3312,6 +3320,32 @@
         <v>1</v>
       </c>
       <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>200</v>
+      </c>
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
         <v>0</v>
       </c>
     </row>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="156">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -969,6 +969,10 @@
   </si>
   <si>
     <t>ui://GameUI/玄冥盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔沉默</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1333,11 +1337,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O39" sqref="O39"/>
+      <selection pane="topRight" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3349,6 +3353,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="156">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1337,11 +1337,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C76" sqref="C76"/>
+      <selection pane="topRight" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3379,6 +3379,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>350</v>
+      </c>
+      <c r="B76" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>54</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>348</v>
+      </c>
+      <c r="B77" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>61</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="159">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -973,6 +973,18 @@
   </si>
   <si>
     <t>血魔沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙心回血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/恐鳌之心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/林肯法球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1337,11 +1349,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3431,6 +3443,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>204</v>
+      </c>
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>157</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>350</v>
+      </c>
+      <c r="B79" t="s">
+        <v>156</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>158</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="160">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -985,6 +985,10 @@
   </si>
   <si>
     <t>ui://GameUI/林肯法球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/淬毒之珠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1349,11 +1353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A79" sqref="A79:XFD79"/>
+      <selection pane="topRight" activeCell="O99" sqref="O99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3495,6 +3499,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>353</v>
+      </c>
+      <c r="B80" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>159</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="164">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -989,6 +989,22 @@
   </si>
   <si>
     <t>ui://GameUI/淬毒之珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙毒性攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/毒龙毒性攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/蓝猫残影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/斧王战斗饥渴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1353,11 +1369,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O99" sqref="O99"/>
+      <selection pane="topRight" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2174,6 +2190,9 @@
       <c r="N29">
         <v>1</v>
       </c>
+      <c r="O29" t="s">
+        <v>163</v>
+      </c>
       <c r="P29">
         <v>1</v>
       </c>
@@ -3522,6 +3541,58 @@
         <v>0</v>
       </c>
       <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>161</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>390</v>
+      </c>
+      <c r="B82" t="s">
+        <v>160</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>162</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
         <v>0</v>
       </c>
     </row>

--- a/Excel/buff_effect.xlsx
+++ b/Excel/buff_effect.xlsx
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="165">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1005,6 +1005,10 @@
   </si>
   <si>
     <t>ui://GameUI/斧王战斗饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://GameUI/血魔焦渴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1369,11 +1373,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O30" sqref="O30"/>
+      <selection pane="topRight" activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3596,6 +3600,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>391</v>
+      </c>
+      <c r="B83" t="s">
+        <v>160</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>164</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
